--- a/biology/Médecine/Syndrome_Allgrove/Syndrome_Allgrove.xlsx
+++ b/biology/Médecine/Syndrome_Allgrove/Syndrome_Allgrove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome Allgrove, aussi appelée syndrome triple A ou syndrome 4A, est une maladie génétique autosomique récessive découverte en 1978 par Jeremy Allgrove (en).
 Les trois principaux symptômes détectables sont une alacrymie (sécheresse de l’œil), une achalasie du cardia (rétrécissement de l’œsophage au-dessus de l'estomac) et une insuffisance surrénalienne évolutive. Cela entraine une déshydratation buccale, de la peau et des flux masculins et également une perte musculaire.
@@ -513,7 +525,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Syndrome Mirage
  Portail de la médecine                     </t>
